--- a/videos/Video Tallies.xlsx
+++ b/videos/Video Tallies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Peridot\Documents\GitHub\EE6934_Project2\videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B5E831-43F7-4821-8236-87E21B862F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD03C6-6891-4D26-8D2F-0828A52A3000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,16 +424,168 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
-        <f>SUM(B2:B8)</f>
-        <v>77</v>
+      <c r="B34">
+        <f>SUM(B2:B33)</f>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
